--- a/workbook.xlsx
+++ b/workbook.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BELAJARQA\Python-Basic-Logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BF7950-A1F7-4F0B-AB4F-AB63D44F751E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC13186E-BD1F-4B61-BB3A-7C06E40C974F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FB6EB09B-E275-438C-BB6B-93A05057460D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>https://www.facebook.com/</t>
   </si>
@@ -49,9 +50,6 @@
     <t>Facebook – log in or sign up</t>
   </si>
   <si>
-    <t>GitHub: Where the world builds software · GitHub</t>
-  </si>
-  <si>
     <t>Message</t>
   </si>
   <si>
@@ -85,10 +83,10 @@
     <t>password12345</t>
   </si>
   <si>
-    <t>Sorry, your password was incorrect. Please double-check your password.</t>
-  </si>
-  <si>
-    <t>The username you entered doesn't belong to an account. Please check your username and try again.</t>
+    <t>There was a problem logging you into Instagram. Please try again soon.</t>
+  </si>
+  <si>
+    <t>GitHub: Let’s build from here · GitHub</t>
   </si>
 </sst>
 </file>
@@ -494,7 +492,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +530,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +549,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,58 +562,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -627,4 +625,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A33AD00-00ED-45D2-9434-9703DD3C8905}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>